--- a/results/benchmark_report_ibnzterrell_Meta-Llama-3.3-70B-Instruct-AWQ-INT4.xlsx
+++ b/results/benchmark_report_ibnzterrell_Meta-Llama-3.3-70B-Instruct-AWQ-INT4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,17 +480,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2x4090</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>467.26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4636961577422991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2x5090</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1230.14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2935528566757533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4x4090</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>906.1900000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4781925791868519</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>4x5090</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2486.72</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B6" t="n">
+        <v>2501.38</v>
+      </c>
+      <c r="C6" t="n">
         <v>2.6</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2904316618767783</v>
+      <c r="D6" t="n">
+        <v>0.2887295101992589</v>
       </c>
     </row>
   </sheetData>

--- a/results/benchmark_report_ibnzterrell_Meta-Llama-3.3-70B-Instruct-AWQ-INT4.xlsx
+++ b/results/benchmark_report_ibnzterrell_Meta-Llama-3.3-70B-Instruct-AWQ-INT4.xlsx
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>906.1900000000001</v>
+        <v>897.3</v>
       </c>
       <c r="C5" t="n">
         <v>1.56</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4781925791868519</v>
+        <v>0.4829302722983767</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2501.38</v>
+        <v>2443.53</v>
       </c>
       <c r="C6" t="n">
         <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2887295101992589</v>
+        <v>0.2955651136766163</v>
       </c>
     </row>
   </sheetData>
